--- a/BLACK_SUNRISE_YCbCr/0_Degree_GLCM/G_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/0_Degree_GLCM/G_resmat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\0_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C6BFB0-A8B6-469C-A5DC-1884AFDB050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,5621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B355" sqref="B355"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2.9006004799496162E-2</v>
+      </c>
+      <c r="B1">
+        <v>0.9119238957108915</v>
+      </c>
+      <c r="C1">
+        <v>0.65724968981926346</v>
+      </c>
+      <c r="D1">
+        <v>0.98549699760025178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5.7308399152649382E-3</v>
+      </c>
+      <c r="B2">
+        <v>0.93687502663025324</v>
+      </c>
+      <c r="C2">
+        <v>0.90355471226690953</v>
+      </c>
+      <c r="D2">
+        <v>0.99713458004236766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.4770815811606393E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.90204509022712387</v>
+      </c>
+      <c r="C3">
+        <v>0.83793682389810675</v>
+      </c>
+      <c r="D3">
+        <v>0.99261459209419667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.3768731268731269E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.89680071512802495</v>
+      </c>
+      <c r="C4">
+        <v>0.8579791085038837</v>
+      </c>
+      <c r="D4">
+        <v>0.99311563436563455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.7541713680889092E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.91959595853431386</v>
+      </c>
+      <c r="C5">
+        <v>0.77796158508017532</v>
+      </c>
+      <c r="D5">
+        <v>0.99122914315955557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.1071370617488996E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.89448598635197063</v>
+      </c>
+      <c r="C6">
+        <v>0.79166937546847316</v>
+      </c>
+      <c r="D6">
+        <v>0.98946431469125562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.3161672764321774E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.92717650751450087</v>
+      </c>
+      <c r="C7">
+        <v>0.81157536191969237</v>
+      </c>
+      <c r="D7">
+        <v>0.99341916361783922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8.2374689637974216E-3</v>
+      </c>
+      <c r="B8">
+        <v>0.93469481268855859</v>
+      </c>
+      <c r="C8">
+        <v>0.86911413426428563</v>
+      </c>
+      <c r="D8">
+        <v>0.9958812655181013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.5159337862659611E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.87583346592090272</v>
+      </c>
+      <c r="C9">
+        <v>0.78388331550770141</v>
+      </c>
+      <c r="D9">
+        <v>0.98742033106867022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.3419421036545429E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.90522662760364181</v>
+      </c>
+      <c r="C10">
+        <v>0.74188348976467355</v>
+      </c>
+      <c r="D10">
+        <v>0.98829028948172737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.5478813886955848E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.89525070619658709</v>
+      </c>
+      <c r="C11">
+        <v>0.8422341670963357</v>
+      </c>
+      <c r="D11">
+        <v>0.99226059305652203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.7916403067736598E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.90160951530447875</v>
+      </c>
+      <c r="C12">
+        <v>0.80647321086585577</v>
+      </c>
+      <c r="D12">
+        <v>0.99104179846613172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7.4124713870923134E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.93093741331049507</v>
+      </c>
+      <c r="C13">
+        <v>0.88702949479050464</v>
+      </c>
+      <c r="D13">
+        <v>0.99629376430645389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.0182961416382048E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.91725192211100059</v>
+      </c>
+      <c r="C14">
+        <v>0.86991232079091052</v>
+      </c>
+      <c r="D14">
+        <v>0.99490851929180912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.2689124531229792E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.89598636359943418</v>
+      </c>
+      <c r="C15">
+        <v>0.87092361334868873</v>
+      </c>
+      <c r="D15">
+        <v>0.99365543773438503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8.5132368260354176E-3</v>
+      </c>
+      <c r="B16">
+        <v>0.92799618386708593</v>
+      </c>
+      <c r="C16">
+        <v>0.87534145415941211</v>
+      </c>
+      <c r="D16">
+        <v>0.99574338158698239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5.4221880801485177E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.92947569261941043</v>
+      </c>
+      <c r="C17">
+        <v>0.91870051834095334</v>
+      </c>
+      <c r="D17">
+        <v>0.9972889059599257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.8628618882620781E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.92116439238220615</v>
+      </c>
+      <c r="C18">
+        <v>0.88199844399884086</v>
+      </c>
+      <c r="D18">
+        <v>0.99556856905586899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1.3677928472512256E-2</v>
+      </c>
+      <c r="B19">
+        <v>0.87957664904598509</v>
+      </c>
+      <c r="C19">
+        <v>0.87784668423722823</v>
+      </c>
+      <c r="D19">
+        <v>0.99316103576374393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6.1602870813397123E-3</v>
+      </c>
+      <c r="B20">
+        <v>0.94686591452956403</v>
+      </c>
+      <c r="C20">
+        <v>0.87902873367248568</v>
+      </c>
+      <c r="D20">
+        <v>0.99691985645933034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.2594861872514246E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.8700445044745605</v>
+      </c>
+      <c r="C21">
+        <v>0.80787027653759658</v>
+      </c>
+      <c r="D21">
+        <v>0.98870256906374299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4.0780394955983817E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.8605553234291593</v>
+      </c>
+      <c r="C22">
+        <v>0.67411791033248813</v>
+      </c>
+      <c r="D22">
+        <v>0.97960980252200791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.761117292713809E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.89475565568027704</v>
+      </c>
+      <c r="C23">
+        <v>0.81934082093394467</v>
+      </c>
+      <c r="D23">
+        <v>0.9911944135364309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.8765408625661498E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.92338524761770313</v>
+      </c>
+      <c r="C24">
+        <v>0.60357239589280387</v>
+      </c>
+      <c r="D24">
+        <v>0.98561729568716938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3.3392360232734632E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.91660901998612487</v>
+      </c>
+      <c r="C25">
+        <v>0.9566596345352294</v>
+      </c>
+      <c r="D25">
+        <v>0.99833038198836321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.8503350707371555E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.87734531102519053</v>
+      </c>
+      <c r="C26">
+        <v>0.83628075786302591</v>
+      </c>
+      <c r="D26">
+        <v>0.99074832464631424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1.6705740676684986E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.91341401300049052</v>
+      </c>
+      <c r="C27">
+        <v>0.79308636568027091</v>
+      </c>
+      <c r="D27">
+        <v>0.99164712966165736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1.0067458822723693E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.93723167425291432</v>
+      </c>
+      <c r="C28">
+        <v>0.83417640676780602</v>
+      </c>
+      <c r="D28">
+        <v>0.99496627058863796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2.5361903232466908E-2</v>
+      </c>
+      <c r="B29">
+        <v>0.89878490534567934</v>
+      </c>
+      <c r="C29">
+        <v>0.73397304743259695</v>
+      </c>
+      <c r="D29">
+        <v>0.98731904838376672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3.2835961255133064E-2</v>
+      </c>
+      <c r="B30">
+        <v>0.88255695377052035</v>
+      </c>
+      <c r="C30">
+        <v>0.7001207959322866</v>
+      </c>
+      <c r="D30">
+        <v>0.98358201937243328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1.7806193458594292E-2</v>
+      </c>
+      <c r="B31">
+        <v>0.91038388186998032</v>
+      </c>
+      <c r="C31">
+        <v>0.79702736767779536</v>
+      </c>
+      <c r="D31">
+        <v>0.99109690327070288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3.7467193032199905E-2</v>
+      </c>
+      <c r="B32">
+        <v>0.87776912323652523</v>
+      </c>
+      <c r="C32">
+        <v>0.66956938700663338</v>
+      </c>
+      <c r="D32">
+        <v>0.98126640348390004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2.2142692423678004E-2</v>
+      </c>
+      <c r="B33">
+        <v>0.86714510513621057</v>
+      </c>
+      <c r="C33">
+        <v>0.81519289175138954</v>
+      </c>
+      <c r="D33">
+        <v>0.98892865378816097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3.9529718605456734E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.90049792717286126</v>
+      </c>
+      <c r="C34">
+        <v>0.95686303407079254</v>
+      </c>
+      <c r="D34">
+        <v>0.99802351406972711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.209460250556141E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.86111432472288529</v>
+      </c>
+      <c r="C35">
+        <v>0.90237829248756407</v>
+      </c>
+      <c r="D35">
+        <v>0.99395269874721937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.1960747429144722E-2</v>
+      </c>
+      <c r="B36">
+        <v>0.9056163784612139</v>
+      </c>
+      <c r="C36">
+        <v>0.86401253127579214</v>
+      </c>
+      <c r="D36">
+        <v>0.99401962628542762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.4224995478386689E-2</v>
+      </c>
+      <c r="B37">
+        <v>0.90958014850528213</v>
+      </c>
+      <c r="C37">
+        <v>0.83086639422658426</v>
+      </c>
+      <c r="D37">
+        <v>0.99288750226080669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2.7253331905055213E-2</v>
+      </c>
+      <c r="B38">
+        <v>0.87679309050838095</v>
+      </c>
+      <c r="C38">
+        <v>0.77295368110191864</v>
+      </c>
+      <c r="D38">
+        <v>0.98637333404747218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2.4479723398920517E-2</v>
+      </c>
+      <c r="B39">
+        <v>0.86161543670963836</v>
+      </c>
+      <c r="C39">
+        <v>0.80486823692281551</v>
+      </c>
+      <c r="D39">
+        <v>0.98776013830053988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3.3034825870646767E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.87147080485012318</v>
+      </c>
+      <c r="C40">
+        <v>0.73676703223197826</v>
+      </c>
+      <c r="D40">
+        <v>0.98348258706467662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3.9533612679905267E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.91545205463245805</v>
+      </c>
+      <c r="C41">
+        <v>0.53281734437819883</v>
+      </c>
+      <c r="D41">
+        <v>0.98023319366004724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3.8725276640236991E-2</v>
+      </c>
+      <c r="B42">
+        <v>0.88740748491365229</v>
+      </c>
+      <c r="C42">
+        <v>0.65826932725629084</v>
+      </c>
+      <c r="D42">
+        <v>0.98063736167988158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3.8048552754435111E-2</v>
+      </c>
+      <c r="B43">
+        <v>0.92001855639346142</v>
+      </c>
+      <c r="C43">
+        <v>0.53535912213244097</v>
+      </c>
+      <c r="D43">
+        <v>0.98097572362278251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2.6090660977265489E-2</v>
+      </c>
+      <c r="B44">
+        <v>0.91352061167788901</v>
+      </c>
+      <c r="C44">
+        <v>0.71204014635957735</v>
+      </c>
+      <c r="D44">
+        <v>0.98695466951136712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2.7676889965025556E-2</v>
+      </c>
+      <c r="B45">
+        <v>0.91601416603969255</v>
+      </c>
+      <c r="C45">
+        <v>0.69186167163090506</v>
+      </c>
+      <c r="D45">
+        <v>0.98616155501748726</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.0843339571705394E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.92032594887773278</v>
+      </c>
+      <c r="C46">
+        <v>0.74773814683384665</v>
+      </c>
+      <c r="D46">
+        <v>0.98957833021414732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2.513951532757434E-2</v>
+      </c>
+      <c r="B47">
+        <v>0.91656548637504121</v>
+      </c>
+      <c r="C47">
+        <v>0.71049881115974889</v>
+      </c>
+      <c r="D47">
+        <v>0.98743024233621279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2.6055480170233764E-2</v>
+      </c>
+      <c r="B48">
+        <v>0.91824145816974168</v>
+      </c>
+      <c r="C48">
+        <v>0.70037179176445485</v>
+      </c>
+      <c r="D48">
+        <v>0.98697225991488313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2.7599706181866746E-2</v>
+      </c>
+      <c r="B49">
+        <v>0.91885339806613553</v>
+      </c>
+      <c r="C49">
+        <v>0.68046887286366597</v>
+      </c>
+      <c r="D49">
+        <v>0.98620014690906654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2.1898476231028925E-2</v>
+      </c>
+      <c r="B50">
+        <v>0.92157826689812461</v>
+      </c>
+      <c r="C50">
+        <v>0.73237459045153097</v>
+      </c>
+      <c r="D50">
+        <v>0.9890507618844856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2.1831312273113464E-2</v>
+      </c>
+      <c r="B51">
+        <v>0.91200493639679736</v>
+      </c>
+      <c r="C51">
+        <v>0.76067244556860303</v>
+      </c>
+      <c r="D51">
+        <v>0.98908434386344324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2.3908352563910447E-2</v>
+      </c>
+      <c r="B52">
+        <v>0.91087921630650159</v>
+      </c>
+      <c r="C52">
+        <v>0.73569328626227903</v>
+      </c>
+      <c r="D52">
+        <v>0.98804582371804495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2.133630221598621E-2</v>
+      </c>
+      <c r="B53">
+        <v>0.9134090118221877</v>
+      </c>
+      <c r="C53">
+        <v>0.75844974710254509</v>
+      </c>
+      <c r="D53">
+        <v>0.98933184889200676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3.2678703410410723E-2</v>
+      </c>
+      <c r="B54">
+        <v>0.92844631032103231</v>
+      </c>
+      <c r="C54">
+        <v>0.55403017497647344</v>
+      </c>
+      <c r="D54">
+        <v>0.98366064829479471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2.8468004883099224E-2</v>
+      </c>
+      <c r="B55">
+        <v>0.93008349710535843</v>
+      </c>
+      <c r="C55">
+        <v>0.59298947884743536</v>
+      </c>
+      <c r="D55">
+        <v>0.98576599755845029</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3.2686654908877136E-2</v>
+      </c>
+      <c r="B56">
+        <v>0.9237752644195053</v>
+      </c>
+      <c r="C56">
+        <v>0.57716790654622363</v>
+      </c>
+      <c r="D56">
+        <v>0.98365667254556155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1.949268292682927E-2</v>
+      </c>
+      <c r="B57">
+        <v>0.91615788060534353</v>
+      </c>
+      <c r="C57">
+        <v>0.77048180260955768</v>
+      </c>
+      <c r="D57">
+        <v>0.99025365853658542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2.12505846834205E-2</v>
+      </c>
+      <c r="B58">
+        <v>0.90526343989400126</v>
+      </c>
+      <c r="C58">
+        <v>0.77638594395094984</v>
+      </c>
+      <c r="D58">
+        <v>0.98937470765828972</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1.8993929463590211E-2</v>
+      </c>
+      <c r="B59">
+        <v>0.91177773982267429</v>
+      </c>
+      <c r="C59">
+        <v>0.78586385608712239</v>
+      </c>
+      <c r="D59">
+        <v>0.99050303526820471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2.4012631751630237E-2</v>
+      </c>
+      <c r="B60">
+        <v>0.90275576811198854</v>
+      </c>
+      <c r="C60">
+        <v>0.75574109546840318</v>
+      </c>
+      <c r="D60">
+        <v>0.98799368412418487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1.3549520388426163E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.92619037526186032</v>
+      </c>
+      <c r="C61">
+        <v>0.80306037430727739</v>
+      </c>
+      <c r="D61">
+        <v>0.99322523980578692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1.0531393879209172E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.92797878772065867</v>
+      </c>
+      <c r="C62">
+        <v>0.84335475255055459</v>
+      </c>
+      <c r="D62">
+        <v>0.99473430306039545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1.375598086124402E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.9194050890258102</v>
+      </c>
+      <c r="C63">
+        <v>0.81577362763923245</v>
+      </c>
+      <c r="D63">
+        <v>0.99312200956937791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2.952767083461097E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.88848242284810586</v>
+      </c>
+      <c r="C64">
+        <v>0.70708908781322721</v>
+      </c>
+      <c r="D64">
+        <v>0.98523616458269458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2.042015947658965E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.90149637602707056</v>
+      </c>
+      <c r="C65">
+        <v>0.77426934843784978</v>
+      </c>
+      <c r="D65">
+        <v>0.9897899202617052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1.4719521642825188E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.93038862299031555</v>
+      </c>
+      <c r="C66">
+        <v>0.77420840268625069</v>
+      </c>
+      <c r="D66">
+        <v>0.99264023917858735</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2.0320288079749938E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.91511358166121093</v>
+      </c>
+      <c r="C67">
+        <v>0.74191825352702545</v>
+      </c>
+      <c r="D67">
+        <v>0.98983985596012514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1.3389739897006196E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.93369102088865241</v>
+      </c>
+      <c r="C68">
+        <v>0.78486003407309768</v>
+      </c>
+      <c r="D68">
+        <v>0.99330513005149701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1.4057984525030298E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.93406924929560298</v>
+      </c>
+      <c r="C69">
+        <v>0.77424741763014959</v>
+      </c>
+      <c r="D69">
+        <v>0.99297100773748481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1.6915982196118021E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.91071046862910687</v>
+      </c>
+      <c r="C70">
+        <v>0.79527299610730406</v>
+      </c>
+      <c r="D70">
+        <v>0.991542008901941</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2.455762792922047E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.91099831085963479</v>
+      </c>
+      <c r="C71">
+        <v>0.70108485881684945</v>
+      </c>
+      <c r="D71">
+        <v>0.98772118603538983</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2.5886450835158975E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.9009652089285537</v>
+      </c>
+      <c r="C72">
+        <v>0.71387159752261797</v>
+      </c>
+      <c r="D72">
+        <v>0.98705677458242069</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2.4089690300329935E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.90748235391665788</v>
+      </c>
+      <c r="C73">
+        <v>0.71744405396431965</v>
+      </c>
+      <c r="D73">
+        <v>0.98795515484983509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1.6354843354309763E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.91851008465416983</v>
+      </c>
+      <c r="C74">
+        <v>0.78551835910567469</v>
+      </c>
+      <c r="D74">
+        <v>0.99182257832284515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1.8155690921396891E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.90612049249162596</v>
+      </c>
+      <c r="C75">
+        <v>0.78935435895877581</v>
+      </c>
+      <c r="D75">
+        <v>0.99092215453930155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2.578817643380054E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.90369137464050153</v>
+      </c>
+      <c r="C76">
+        <v>0.7090518436346176</v>
+      </c>
+      <c r="D76">
+        <v>0.9871059117830997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2.1102552676809473E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.91577180272662451</v>
+      </c>
+      <c r="C77">
+        <v>0.72898483384853641</v>
+      </c>
+      <c r="D77">
+        <v>0.9894487236615952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1.1882490103573562E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.92684785511656753</v>
+      </c>
+      <c r="C78">
+        <v>0.82585726074620835</v>
+      </c>
+      <c r="D78">
+        <v>0.99405875494821327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1.4113810166441747E-2</v>
+      </c>
+      <c r="B79">
+        <v>0.90133446125414984</v>
+      </c>
+      <c r="C79">
+        <v>0.84323665470337217</v>
+      </c>
+      <c r="D79">
+        <v>0.99294309491677901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>8.6202466598150063E-3</v>
+      </c>
+      <c r="B80">
+        <v>0.93838244717738306</v>
+      </c>
+      <c r="C80">
+        <v>0.85276233149253611</v>
+      </c>
+      <c r="D80">
+        <v>0.99568987667009246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1.3549520388426163E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.92619037526186032</v>
+      </c>
+      <c r="C81">
+        <v>0.80306037430727739</v>
+      </c>
+      <c r="D81">
+        <v>0.99322523980578692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1.0531393879209172E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.92797878772065867</v>
+      </c>
+      <c r="C82">
+        <v>0.84335475255055459</v>
+      </c>
+      <c r="D82">
+        <v>0.99473430306039545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1.375598086124402E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.9194050890258102</v>
+      </c>
+      <c r="C83">
+        <v>0.81577362763923245</v>
+      </c>
+      <c r="D83">
+        <v>0.99312200956937791</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2.952767083461097E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.88848242284810586</v>
+      </c>
+      <c r="C84">
+        <v>0.70708908781322721</v>
+      </c>
+      <c r="D84">
+        <v>0.98523616458269458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2.042015947658965E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.90149637602707056</v>
+      </c>
+      <c r="C85">
+        <v>0.77426934843784978</v>
+      </c>
+      <c r="D85">
+        <v>0.9897899202617052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1.4719521642825188E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.93038862299031555</v>
+      </c>
+      <c r="C86">
+        <v>0.77420840268625069</v>
+      </c>
+      <c r="D86">
+        <v>0.99264023917858735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2.0320288079749938E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.91511358166121093</v>
+      </c>
+      <c r="C87">
+        <v>0.74191825352702545</v>
+      </c>
+      <c r="D87">
+        <v>0.98983985596012514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1.3389739897006196E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.93369102088865241</v>
+      </c>
+      <c r="C88">
+        <v>0.78486003407309768</v>
+      </c>
+      <c r="D88">
+        <v>0.99330513005149701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1.4057984525030298E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.93406924929560298</v>
+      </c>
+      <c r="C89">
+        <v>0.77424741763014959</v>
+      </c>
+      <c r="D89">
+        <v>0.99297100773748481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1.6915982196118021E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.91071046862910687</v>
+      </c>
+      <c r="C90">
+        <v>0.79527299610730406</v>
+      </c>
+      <c r="D90">
+        <v>0.991542008901941</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2.455762792922047E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.91099831085963479</v>
+      </c>
+      <c r="C91">
+        <v>0.70108485881684945</v>
+      </c>
+      <c r="D91">
+        <v>0.98772118603538983</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2.5886450835158975E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.9009652089285537</v>
+      </c>
+      <c r="C92">
+        <v>0.71387159752261797</v>
+      </c>
+      <c r="D92">
+        <v>0.98705677458242069</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2.4089690300329935E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.90748235391665788</v>
+      </c>
+      <c r="C93">
+        <v>0.71744405396431965</v>
+      </c>
+      <c r="D93">
+        <v>0.98795515484983509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1.6354843354309763E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.91851008465416983</v>
+      </c>
+      <c r="C94">
+        <v>0.78551835910567469</v>
+      </c>
+      <c r="D94">
+        <v>0.99182257832284515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1.8155690921396891E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.90612049249162596</v>
+      </c>
+      <c r="C95">
+        <v>0.78935435895877581</v>
+      </c>
+      <c r="D95">
+        <v>0.99092215453930155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2.578817643380054E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.90369137464050153</v>
+      </c>
+      <c r="C96">
+        <v>0.7090518436346176</v>
+      </c>
+      <c r="D96">
+        <v>0.9871059117830997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2.1102552676809473E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.91577180272662451</v>
+      </c>
+      <c r="C97">
+        <v>0.72898483384853641</v>
+      </c>
+      <c r="D97">
+        <v>0.9894487236615952</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1.1882490103573562E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.92684785511656753</v>
+      </c>
+      <c r="C98">
+        <v>0.82585726074620835</v>
+      </c>
+      <c r="D98">
+        <v>0.99405875494821327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1.4113810166441747E-2</v>
+      </c>
+      <c r="B99">
+        <v>0.90133446125414984</v>
+      </c>
+      <c r="C99">
+        <v>0.84323665470337217</v>
+      </c>
+      <c r="D99">
+        <v>0.99294309491677901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>8.6202466598150063E-3</v>
+      </c>
+      <c r="B100">
+        <v>0.93838244717738306</v>
+      </c>
+      <c r="C100">
+        <v>0.85276233149253611</v>
+      </c>
+      <c r="D100">
+        <v>0.99568987667009246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1.1743351233486818E-3</v>
+      </c>
+      <c r="B101">
+        <v>0.83622050438312467</v>
+      </c>
+      <c r="C101">
+        <v>0.99210789029567559</v>
+      </c>
+      <c r="D101">
+        <v>0.99941283243832568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1.7406994639919335E-2</v>
+      </c>
+      <c r="B102">
+        <v>0.79535588498123178</v>
+      </c>
+      <c r="C102">
+        <v>0.89870377055650896</v>
+      </c>
+      <c r="D102">
+        <v>0.99129650268004044</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1.4082051138979172E-2</v>
+      </c>
+      <c r="B103">
+        <v>0.91009324275463777</v>
+      </c>
+      <c r="C103">
+        <v>0.8298119336668407</v>
+      </c>
+      <c r="D103">
+        <v>0.9929589744305104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>4.6204238921001926E-3</v>
+      </c>
+      <c r="B104">
+        <v>0.79440958044384669</v>
+      </c>
+      <c r="C104">
+        <v>0.97293987788878122</v>
+      </c>
+      <c r="D104">
+        <v>0.99768978805394981</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2.6309959011853329E-4</v>
+      </c>
+      <c r="B105">
+        <v>0.92372526848480618</v>
+      </c>
+      <c r="C105">
+        <v>0.99648806303343729</v>
+      </c>
+      <c r="D105">
+        <v>0.99986845020494064</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2.1758743299899169E-3</v>
+      </c>
+      <c r="B106">
+        <v>0.79548687888835234</v>
+      </c>
+      <c r="C106">
+        <v>0.9879634678282051</v>
+      </c>
+      <c r="D106">
+        <v>0.998912062835005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1.275223929321989E-3</v>
+      </c>
+      <c r="B107">
+        <v>0.83850438592511134</v>
+      </c>
+      <c r="C107">
+        <v>0.99103331030881148</v>
+      </c>
+      <c r="D107">
+        <v>0.99936238803533894</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>3.8544557508479803E-4</v>
+      </c>
+      <c r="B108">
+        <v>0.90868257167283439</v>
+      </c>
+      <c r="C108">
+        <v>0.99580044254518429</v>
+      </c>
+      <c r="D108">
+        <v>0.99980727721245777</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>4.388707854689883E-4</v>
+      </c>
+      <c r="B109">
+        <v>0.87407146478569464</v>
+      </c>
+      <c r="C109">
+        <v>0.99633501796493928</v>
+      </c>
+      <c r="D109">
+        <v>0.99978056460726539</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1.7341541663053845E-4</v>
+      </c>
+      <c r="B110">
+        <v>0.94818900876419743</v>
+      </c>
+      <c r="C110">
+        <v>0.99647953689354263</v>
+      </c>
+      <c r="D110">
+        <v>0.9999132922916848</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1.7456245541067715E-4</v>
+      </c>
+      <c r="B111">
+        <v>0.94312246096575403</v>
+      </c>
+      <c r="C111">
+        <v>0.99675637504295189</v>
+      </c>
+      <c r="D111">
+        <v>0.9999127187722946</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>4.6009917693369458E-4</v>
+      </c>
+      <c r="B112">
+        <v>0.88173973310805187</v>
+      </c>
+      <c r="C112">
+        <v>0.99570056593186651</v>
+      </c>
+      <c r="D112">
+        <v>0.99976995041153305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1.6658337497917709E-4</v>
+      </c>
+      <c r="B113">
+        <v>0.93609461550162021</v>
+      </c>
+      <c r="C113">
+        <v>0.99743470246470856</v>
+      </c>
+      <c r="D113">
+        <v>0.99991670831251067</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>6.043487664923597E-4</v>
+      </c>
+      <c r="B114">
+        <v>0.88822521877825722</v>
+      </c>
+      <c r="C114">
+        <v>0.99445874824303526</v>
+      </c>
+      <c r="D114">
+        <v>0.99969782561675369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1.7981722375863519E-3</v>
+      </c>
+      <c r="B115">
+        <v>0.83564422019911488</v>
+      </c>
+      <c r="C115">
+        <v>0.98750209118685572</v>
+      </c>
+      <c r="D115">
+        <v>0.9991009138812067</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>4.8098268462335358E-4</v>
+      </c>
+      <c r="B116">
+        <v>0.87673969877725888</v>
+      </c>
+      <c r="C116">
+        <v>0.99575247405937228</v>
+      </c>
+      <c r="D116">
+        <v>0.99975950865768837</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2.9657426461687444E-4</v>
+      </c>
+      <c r="B117">
+        <v>0.90433837212393098</v>
+      </c>
+      <c r="C117">
+        <v>0.99666370402440974</v>
+      </c>
+      <c r="D117">
+        <v>0.99985171286769148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1.2992584421155848E-3</v>
+      </c>
+      <c r="B118">
+        <v>0.81528350530306803</v>
+      </c>
+      <c r="C118">
+        <v>0.99232392661843982</v>
+      </c>
+      <c r="D118">
+        <v>0.99935037077894218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>9.2753120665742012E-4</v>
+      </c>
+      <c r="B119">
+        <v>0.85537406648847691</v>
+      </c>
+      <c r="C119">
+        <v>0.99308377194901898</v>
+      </c>
+      <c r="D119">
+        <v>0.99953623439667127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1.3160368490317729E-3</v>
+      </c>
+      <c r="B120">
+        <v>0.81588792857932979</v>
+      </c>
+      <c r="C120">
+        <v>0.99190925006013364</v>
+      </c>
+      <c r="D120">
+        <v>0.99934198157548393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2.235339534999564E-3</v>
+      </c>
+      <c r="B121">
+        <v>0.94313633839485966</v>
+      </c>
+      <c r="C121">
+        <v>0.97967907358009965</v>
+      </c>
+      <c r="D121">
+        <v>0.99888233023250039</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>9.3996216203271303E-3</v>
+      </c>
+      <c r="B122">
+        <v>0.78362952347228332</v>
+      </c>
+      <c r="C122">
+        <v>0.94724797748395184</v>
+      </c>
+      <c r="D122">
+        <v>0.99530018918983643</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>9.7498309668695056E-3</v>
+      </c>
+      <c r="B123">
+        <v>0.83842469193301372</v>
+      </c>
+      <c r="C123">
+        <v>0.93000386921927913</v>
+      </c>
+      <c r="D123">
+        <v>0.99512508451656534</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>3.9866681398003905E-3</v>
+      </c>
+      <c r="B124">
+        <v>0.70800451506188999</v>
+      </c>
+      <c r="C124">
+        <v>0.98237753335052103</v>
+      </c>
+      <c r="D124">
+        <v>0.9980066659300999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3.7310470747003251E-4</v>
+      </c>
+      <c r="B125">
+        <v>0.86946608057277719</v>
+      </c>
+      <c r="C125">
+        <v>0.99678121585341117</v>
+      </c>
+      <c r="D125">
+        <v>0.99981344764626501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>5.3940606488564588E-4</v>
+      </c>
+      <c r="B126">
+        <v>0.86996594108853043</v>
+      </c>
+      <c r="C126">
+        <v>0.9956139516094713</v>
+      </c>
+      <c r="D126">
+        <v>0.99973029696755733</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>3.5977561749243733E-3</v>
+      </c>
+      <c r="B127">
+        <v>0.81096327553558722</v>
+      </c>
+      <c r="C127">
+        <v>0.9776461330073134</v>
+      </c>
+      <c r="D127">
+        <v>0.99820112191253774</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>8.6884830035514969E-4</v>
+      </c>
+      <c r="B128">
+        <v>0.76859812287459428</v>
+      </c>
+      <c r="C128">
+        <v>0.99537811159774647</v>
+      </c>
+      <c r="D128">
+        <v>0.99956557584982242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2.5480025480025476E-3</v>
+      </c>
+      <c r="B129">
+        <v>0.90753112762540045</v>
+      </c>
+      <c r="C129">
+        <v>0.98158636599065674</v>
+      </c>
+      <c r="D129">
+        <v>0.99872599872599888</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1.926036237279722E-3</v>
+      </c>
+      <c r="B130">
+        <v>0.94676413327041564</v>
+      </c>
+      <c r="C130">
+        <v>0.98141302787355589</v>
+      </c>
+      <c r="D130">
+        <v>0.99903698188136014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>5.3497942386831277E-3</v>
+      </c>
+      <c r="B131">
+        <v>0.81808188362172152</v>
+      </c>
+      <c r="C131">
+        <v>0.96620049877259062</v>
+      </c>
+      <c r="D131">
+        <v>0.99732510288065834</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>7.4450832964764843E-4</v>
+      </c>
+      <c r="B132">
+        <v>0.94648105361886603</v>
+      </c>
+      <c r="C132">
+        <v>0.9910806019219377</v>
+      </c>
+      <c r="D132">
+        <v>0.99962774583517633</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1.3927576601671309E-3</v>
+      </c>
+      <c r="B133">
+        <v>0.94485774575622705</v>
+      </c>
+      <c r="C133">
+        <v>0.98538798117405768</v>
+      </c>
+      <c r="D133">
+        <v>0.99930362116991645</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>3.4792117100325556E-4</v>
+      </c>
+      <c r="B134">
+        <v>0.84252247603332198</v>
+      </c>
+      <c r="C134">
+        <v>0.99744286128657589</v>
+      </c>
+      <c r="D134">
+        <v>0.99982603941449832</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>3.3496922957077201E-3</v>
+      </c>
+      <c r="B135">
+        <v>0.73289465418971445</v>
+      </c>
+      <c r="C135">
+        <v>0.98420922129294897</v>
+      </c>
+      <c r="D135">
+        <v>0.99832515385214604</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>7.7249855646292177E-3</v>
+      </c>
+      <c r="B136">
+        <v>0.84033961372281052</v>
+      </c>
+      <c r="C136">
+        <v>0.94395309358598145</v>
+      </c>
+      <c r="D136">
+        <v>0.99613750721768535</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>5.610981100573415E-4</v>
+      </c>
+      <c r="B137">
+        <v>0.86748938585064594</v>
+      </c>
+      <c r="C137">
+        <v>0.99521940350202387</v>
+      </c>
+      <c r="D137">
+        <v>0.99971945094497139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2.6599635584992484E-4</v>
+      </c>
+      <c r="B138">
+        <v>0.87211087095523609</v>
+      </c>
+      <c r="C138">
+        <v>0.99766145737219203</v>
+      </c>
+      <c r="D138">
+        <v>0.99986700182207511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1.4674820709303467E-3</v>
+      </c>
+      <c r="B139">
+        <v>0.78985106106507408</v>
+      </c>
+      <c r="C139">
+        <v>0.99156558703261621</v>
+      </c>
+      <c r="D139">
+        <v>0.99926625896453491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>8.1416770666191244E-4</v>
+      </c>
+      <c r="B140">
+        <v>0.83042174651050726</v>
+      </c>
+      <c r="C140">
+        <v>0.99478056185959252</v>
+      </c>
+      <c r="D140">
+        <v>0.99959291614666912</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>4.1259238855988617E-2</v>
+      </c>
+      <c r="B141">
+        <v>0.86197485812587415</v>
+      </c>
+      <c r="C141">
+        <v>0.66152558902752701</v>
+      </c>
+      <c r="D141">
+        <v>0.97937038057200565</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>6.4379487587102255E-2</v>
+      </c>
+      <c r="B142">
+        <v>0.86775440828438088</v>
+      </c>
+      <c r="C142">
+        <v>0.45311392235367348</v>
+      </c>
+      <c r="D142">
+        <v>0.96781025620644878</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>5.0993753549119822E-2</v>
+      </c>
+      <c r="B143">
+        <v>0.86347830099024003</v>
+      </c>
+      <c r="C143">
+        <v>0.57914808703046416</v>
+      </c>
+      <c r="D143">
+        <v>0.97450312322544019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>3.4446989087969823E-2</v>
+      </c>
+      <c r="B144">
+        <v>0.89060572923019998</v>
+      </c>
+      <c r="C144">
+        <v>0.65185152016674719</v>
+      </c>
+      <c r="D144">
+        <v>0.98277650545601514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2.9823542427259653E-2</v>
+      </c>
+      <c r="B145">
+        <v>0.86987546431560736</v>
+      </c>
+      <c r="C145">
+        <v>0.74188257012203906</v>
+      </c>
+      <c r="D145">
+        <v>0.98508822878637003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>4.7918325107466964E-2</v>
+      </c>
+      <c r="B146">
+        <v>0.8785240377421295</v>
+      </c>
+      <c r="C146">
+        <v>0.5599118703027286</v>
+      </c>
+      <c r="D146">
+        <v>0.97604083744626657</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>5.8944036505615638E-2</v>
+      </c>
+      <c r="B147">
+        <v>0.86437761754676101</v>
+      </c>
+      <c r="C147">
+        <v>0.50998432572218644</v>
+      </c>
+      <c r="D147">
+        <v>0.97052798174719224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>5.1604088055635454E-2</v>
+      </c>
+      <c r="B148">
+        <v>0.88880152864967632</v>
+      </c>
+      <c r="C148">
+        <v>0.48715395905755166</v>
+      </c>
+      <c r="D148">
+        <v>0.97419795597218239</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>5.9679831473321968E-2</v>
+      </c>
+      <c r="B149">
+        <v>0.8758299540355674</v>
+      </c>
+      <c r="C149">
+        <v>0.46325353631480048</v>
+      </c>
+      <c r="D149">
+        <v>0.970160084263339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>6.4753617078935885E-2</v>
+      </c>
+      <c r="B150">
+        <v>0.86851023435396613</v>
+      </c>
+      <c r="C150">
+        <v>0.44703661314688942</v>
+      </c>
+      <c r="D150">
+        <v>0.96762319146053222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>5.6656308347151678E-2</v>
+      </c>
+      <c r="B151">
+        <v>0.8784754538576689</v>
+      </c>
+      <c r="C151">
+        <v>0.48035024961283179</v>
+      </c>
+      <c r="D151">
+        <v>0.97167184582642407</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>5.2951222844650911E-2</v>
+      </c>
+      <c r="B152">
+        <v>0.87251412784282145</v>
+      </c>
+      <c r="C152">
+        <v>0.53454487788840022</v>
+      </c>
+      <c r="D152">
+        <v>0.97352438857767465</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>5.1099034506398536E-2</v>
+      </c>
+      <c r="B153">
+        <v>0.87443168258290616</v>
+      </c>
+      <c r="C153">
+        <v>0.54457029591880535</v>
+      </c>
+      <c r="D153">
+        <v>0.97445048274680068</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>6.4439300929187204E-2</v>
+      </c>
+      <c r="B154">
+        <v>0.86548367113729541</v>
+      </c>
+      <c r="C154">
+        <v>0.46094024409339984</v>
+      </c>
+      <c r="D154">
+        <v>0.96778034953540648</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>5.3724402382312159E-2</v>
+      </c>
+      <c r="B155">
+        <v>0.86499199717708231</v>
+      </c>
+      <c r="C155">
+        <v>0.55139802555677653</v>
+      </c>
+      <c r="D155">
+        <v>0.9731377988088441</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>5.3078278009603894E-2</v>
+      </c>
+      <c r="B156">
+        <v>0.8937199339158447</v>
+      </c>
+      <c r="C156">
+        <v>0.45032124696310893</v>
+      </c>
+      <c r="D156">
+        <v>0.97346086099519802</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>4.9032383545657879E-2</v>
+      </c>
+      <c r="B157">
+        <v>0.90188301767997359</v>
+      </c>
+      <c r="C157">
+        <v>0.45364233677730303</v>
+      </c>
+      <c r="D157">
+        <v>0.97548380822717107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>5.5289539101022862E-2</v>
+      </c>
+      <c r="B158">
+        <v>0.88569619864189486</v>
+      </c>
+      <c r="C158">
+        <v>0.46410948597338891</v>
+      </c>
+      <c r="D158">
+        <v>0.97235523044948868</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>4.4390352081441278E-2</v>
+      </c>
+      <c r="B159">
+        <v>0.87615295879728672</v>
+      </c>
+      <c r="C159">
+        <v>0.59920374450567737</v>
+      </c>
+      <c r="D159">
+        <v>0.97780482395927948</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>5.8274497704049216E-2</v>
+      </c>
+      <c r="B160">
+        <v>0.87847644052462626</v>
+      </c>
+      <c r="C160">
+        <v>0.46564489622461314</v>
+      </c>
+      <c r="D160">
+        <v>0.97086275114797527</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>4.4275214734791464E-5</v>
+      </c>
+      <c r="B161">
+        <v>0.64283500387748393</v>
+      </c>
+      <c r="C161">
+        <v>0.99983176382865746</v>
+      </c>
+      <c r="D161">
+        <v>0.99997786239263264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>4.8009439590132291E-2</v>
+      </c>
+      <c r="B162">
+        <v>0.87353233233210159</v>
+      </c>
+      <c r="C162">
+        <v>0.57467839041416457</v>
+      </c>
+      <c r="D162">
+        <v>0.97599528020493387</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>5.1777897703423878E-2</v>
+      </c>
+      <c r="B163">
+        <v>0.89002751349289044</v>
+      </c>
+      <c r="C163">
+        <v>0.48020234809857515</v>
+      </c>
+      <c r="D163">
+        <v>0.97411105114828822</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>4.2817383857846286E-4</v>
+      </c>
+      <c r="B164">
+        <v>0.81796747888270738</v>
+      </c>
+      <c r="C164">
+        <v>0.99721982629122119</v>
+      </c>
+      <c r="D164">
+        <v>0.99978591308071085</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>5.5287919765607395E-2</v>
+      </c>
+      <c r="B165">
+        <v>0.88695218622964533</v>
+      </c>
+      <c r="C165">
+        <v>0.45870468677960141</v>
+      </c>
+      <c r="D165">
+        <v>0.97235604011719623</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1.5037521461504331E-2</v>
+      </c>
+      <c r="B166">
+        <v>0.87604105349958383</v>
+      </c>
+      <c r="C166">
+        <v>0.86387882575170927</v>
+      </c>
+      <c r="D166">
+        <v>0.99248123926924792</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>6.0403832991101983E-2</v>
+      </c>
+      <c r="B167">
+        <v>0.87217249950433928</v>
+      </c>
+      <c r="C167">
+        <v>0.47070309557302314</v>
+      </c>
+      <c r="D167">
+        <v>0.96979808350444896</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1.8333822235259607E-5</v>
+      </c>
+      <c r="B168">
+        <v>-9.1669951506595651E-6</v>
+      </c>
+      <c r="C168">
+        <v>0.99996333285972305</v>
+      </c>
+      <c r="D168">
+        <v>0.99999083308888237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>6.6688724825793688E-2</v>
+      </c>
+      <c r="B169">
+        <v>0.86657760614381785</v>
+      </c>
+      <c r="C169">
+        <v>0.43792716392143149</v>
+      </c>
+      <c r="D169">
+        <v>0.96665563758710316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>6.2687096545364251E-2</v>
+      </c>
+      <c r="B170">
+        <v>0.87067998942434421</v>
+      </c>
+      <c r="C170">
+        <v>0.45662506363240146</v>
+      </c>
+      <c r="D170">
+        <v>0.96865645172731785</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>5.8921660216201793E-2</v>
+      </c>
+      <c r="B171">
+        <v>0.87739535584338935</v>
+      </c>
+      <c r="C171">
+        <v>0.46396748960485551</v>
+      </c>
+      <c r="D171">
+        <v>0.97053916989189903</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>5.9965126833229826E-2</v>
+      </c>
+      <c r="B172">
+        <v>0.86649853726597581</v>
+      </c>
+      <c r="C172">
+        <v>0.49453234468638685</v>
+      </c>
+      <c r="D172">
+        <v>0.97001743658338513</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>5.4236812570145898E-2</v>
+      </c>
+      <c r="B173">
+        <v>0.88440590165605937</v>
+      </c>
+      <c r="C173">
+        <v>0.47951812934283139</v>
+      </c>
+      <c r="D173">
+        <v>0.972881593714927</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1.6354487000279562E-2</v>
+      </c>
+      <c r="B174">
+        <v>0.84289147125510877</v>
+      </c>
+      <c r="C174">
+        <v>0.87981649438771581</v>
+      </c>
+      <c r="D174">
+        <v>0.99182275649986018</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2.6117547610760281E-2</v>
+      </c>
+      <c r="B175">
+        <v>0.88876631399702866</v>
+      </c>
+      <c r="C175">
+        <v>0.73976568197131065</v>
+      </c>
+      <c r="D175">
+        <v>0.98694122619461988</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>6.636010283405766E-2</v>
+      </c>
+      <c r="B176">
+        <v>0.86731682214324468</v>
+      </c>
+      <c r="C176">
+        <v>0.43812565288623895</v>
+      </c>
+      <c r="D176">
+        <v>0.96681994858297116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>6.8631104773633211E-2</v>
+      </c>
+      <c r="B177">
+        <v>0.86218963254999725</v>
+      </c>
+      <c r="C177">
+        <v>0.43808513071391425</v>
+      </c>
+      <c r="D177">
+        <v>0.96568444761318339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>6.3820794590025362E-2</v>
+      </c>
+      <c r="B178">
+        <v>0.87219498901507575</v>
+      </c>
+      <c r="C178">
+        <v>0.44119033731680718</v>
+      </c>
+      <c r="D178">
+        <v>0.96808960270498734</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>5.5699700104457996E-2</v>
+      </c>
+      <c r="B179">
+        <v>0.87812990271058122</v>
+      </c>
+      <c r="C179">
+        <v>0.49036331108891162</v>
+      </c>
+      <c r="D179">
+        <v>0.97215014994777094</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>1.4193456816407636E-4</v>
+      </c>
+      <c r="B180">
+        <v>0.8309149183979222</v>
+      </c>
+      <c r="C180">
+        <v>0.99901865866378137</v>
+      </c>
+      <c r="D180">
+        <v>0.99992903271591793</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>4.4275214734791464E-5</v>
+      </c>
+      <c r="B181">
+        <v>0.64283500387748393</v>
+      </c>
+      <c r="C181">
+        <v>0.99983176382865746</v>
+      </c>
+      <c r="D181">
+        <v>0.99997786239263264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>4.8009439590132291E-2</v>
+      </c>
+      <c r="B182">
+        <v>0.87353233233210159</v>
+      </c>
+      <c r="C182">
+        <v>0.57467839041416457</v>
+      </c>
+      <c r="D182">
+        <v>0.97599528020493387</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>5.1777897703423878E-2</v>
+      </c>
+      <c r="B183">
+        <v>0.89002751349289044</v>
+      </c>
+      <c r="C183">
+        <v>0.48020234809857515</v>
+      </c>
+      <c r="D183">
+        <v>0.97411105114828822</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>4.2817383857846286E-4</v>
+      </c>
+      <c r="B184">
+        <v>0.81796747888270738</v>
+      </c>
+      <c r="C184">
+        <v>0.99721982629122119</v>
+      </c>
+      <c r="D184">
+        <v>0.99978591308071085</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>5.5287919765607395E-2</v>
+      </c>
+      <c r="B185">
+        <v>0.88695218622964533</v>
+      </c>
+      <c r="C185">
+        <v>0.45870468677960141</v>
+      </c>
+      <c r="D185">
+        <v>0.97235604011719623</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1.5037521461504331E-2</v>
+      </c>
+      <c r="B186">
+        <v>0.87604105349958383</v>
+      </c>
+      <c r="C186">
+        <v>0.86387882575170927</v>
+      </c>
+      <c r="D186">
+        <v>0.99248123926924792</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>6.0403832991101983E-2</v>
+      </c>
+      <c r="B187">
+        <v>0.87217249950433928</v>
+      </c>
+      <c r="C187">
+        <v>0.47070309557302314</v>
+      </c>
+      <c r="D187">
+        <v>0.96979808350444896</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1.8333822235259607E-5</v>
+      </c>
+      <c r="B188">
+        <v>-9.1669951506595651E-6</v>
+      </c>
+      <c r="C188">
+        <v>0.99996333285972305</v>
+      </c>
+      <c r="D188">
+        <v>0.99999083308888237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>6.6688724825793688E-2</v>
+      </c>
+      <c r="B189">
+        <v>0.86657760614381785</v>
+      </c>
+      <c r="C189">
+        <v>0.43792716392143149</v>
+      </c>
+      <c r="D189">
+        <v>0.96665563758710316</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>6.2687096545364251E-2</v>
+      </c>
+      <c r="B190">
+        <v>0.87067998942434421</v>
+      </c>
+      <c r="C190">
+        <v>0.45662506363240146</v>
+      </c>
+      <c r="D190">
+        <v>0.96865645172731785</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>5.8921660216201793E-2</v>
+      </c>
+      <c r="B191">
+        <v>0.87739535584338935</v>
+      </c>
+      <c r="C191">
+        <v>0.46396748960485551</v>
+      </c>
+      <c r="D191">
+        <v>0.97053916989189903</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>5.9965126833229826E-2</v>
+      </c>
+      <c r="B192">
+        <v>0.86649853726597581</v>
+      </c>
+      <c r="C192">
+        <v>0.49453234468638685</v>
+      </c>
+      <c r="D192">
+        <v>0.97001743658338513</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>5.4236812570145898E-2</v>
+      </c>
+      <c r="B193">
+        <v>0.88440590165605937</v>
+      </c>
+      <c r="C193">
+        <v>0.47951812934283139</v>
+      </c>
+      <c r="D193">
+        <v>0.972881593714927</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1.6354487000279562E-2</v>
+      </c>
+      <c r="B194">
+        <v>0.84289147125510877</v>
+      </c>
+      <c r="C194">
+        <v>0.87981649438771581</v>
+      </c>
+      <c r="D194">
+        <v>0.99182275649986018</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2.6117547610760281E-2</v>
+      </c>
+      <c r="B195">
+        <v>0.88876631399702866</v>
+      </c>
+      <c r="C195">
+        <v>0.73976568197131065</v>
+      </c>
+      <c r="D195">
+        <v>0.98694122619461988</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>6.636010283405766E-2</v>
+      </c>
+      <c r="B196">
+        <v>0.86731682214324468</v>
+      </c>
+      <c r="C196">
+        <v>0.43812565288623895</v>
+      </c>
+      <c r="D196">
+        <v>0.96681994858297116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>6.8631104773633211E-2</v>
+      </c>
+      <c r="B197">
+        <v>0.86218963254999725</v>
+      </c>
+      <c r="C197">
+        <v>0.43808513071391425</v>
+      </c>
+      <c r="D197">
+        <v>0.96568444761318339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>6.3820794590025362E-2</v>
+      </c>
+      <c r="B198">
+        <v>0.87219498901507575</v>
+      </c>
+      <c r="C198">
+        <v>0.44119033731680718</v>
+      </c>
+      <c r="D198">
+        <v>0.96808960270498734</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>5.5699700104457996E-2</v>
+      </c>
+      <c r="B199">
+        <v>0.87812990271058122</v>
+      </c>
+      <c r="C199">
+        <v>0.49036331108891162</v>
+      </c>
+      <c r="D199">
+        <v>0.97215014994777094</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1.4193456816407636E-4</v>
+      </c>
+      <c r="B200">
+        <v>0.8309149183979222</v>
+      </c>
+      <c r="C200">
+        <v>0.99901865866378137</v>
+      </c>
+      <c r="D200">
+        <v>0.99992903271591793</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>2.5238084123056811E-3</v>
+      </c>
+      <c r="B201">
+        <v>0.77801252786932462</v>
+      </c>
+      <c r="C201">
+        <v>0.98611347796537585</v>
+      </c>
+      <c r="D201">
+        <v>0.99873809579384731</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>2.2987003083090934E-3</v>
+      </c>
+      <c r="B202">
+        <v>0.79884400664011357</v>
+      </c>
+      <c r="C202">
+        <v>0.98627913246209564</v>
+      </c>
+      <c r="D202">
+        <v>0.99885064984584548</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>5.1509262482113162E-3</v>
+      </c>
+      <c r="B203">
+        <v>0.78798330372426861</v>
+      </c>
+      <c r="C203">
+        <v>0.97061792443113259</v>
+      </c>
+      <c r="D203">
+        <v>0.99742453687589439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>4.5093912670993693E-3</v>
+      </c>
+      <c r="B204">
+        <v>0.82029553526490406</v>
+      </c>
+      <c r="C204">
+        <v>0.97041873157874947</v>
+      </c>
+      <c r="D204">
+        <v>0.99774530436645037</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>4.8536686777147023E-3</v>
+      </c>
+      <c r="B205">
+        <v>0.77342011463199911</v>
+      </c>
+      <c r="C205">
+        <v>0.97375281969582306</v>
+      </c>
+      <c r="D205">
+        <v>0.99757316566114274</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>8.1634190437926881E-3</v>
+      </c>
+      <c r="B206">
+        <v>0.80381139005130053</v>
+      </c>
+      <c r="C206">
+        <v>0.95030457536664736</v>
+      </c>
+      <c r="D206">
+        <v>0.99591829047810365</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1.0286081645773062E-2</v>
+      </c>
+      <c r="B207">
+        <v>0.80309863133784753</v>
+      </c>
+      <c r="C207">
+        <v>0.9375800316291969</v>
+      </c>
+      <c r="D207">
+        <v>0.99485695917711348</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1.3128129470672389E-2</v>
+      </c>
+      <c r="B208">
+        <v>0.82500260046455709</v>
+      </c>
+      <c r="C208">
+        <v>0.91202641304746879</v>
+      </c>
+      <c r="D208">
+        <v>0.99343593526466389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2.8660536993870327E-2</v>
+      </c>
+      <c r="B209">
+        <v>0.90867011876087578</v>
+      </c>
+      <c r="C209">
+        <v>0.65834757742521277</v>
+      </c>
+      <c r="D209">
+        <v>0.98566973150306492</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>8.8771753681392233E-3</v>
+      </c>
+      <c r="B210">
+        <v>0.87270040929370263</v>
+      </c>
+      <c r="C210">
+        <v>0.92146712059149694</v>
+      </c>
+      <c r="D210">
+        <v>0.99556141231593043</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3.1432881132633867E-3</v>
+      </c>
+      <c r="B211">
+        <v>0.80459674529235148</v>
+      </c>
+      <c r="C211">
+        <v>0.98078045003715619</v>
+      </c>
+      <c r="D211">
+        <v>0.99842835594336832</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>2.6158896438528102E-3</v>
+      </c>
+      <c r="B212">
+        <v>0.76803839552666087</v>
+      </c>
+      <c r="C212">
+        <v>0.98611371258601677</v>
+      </c>
+      <c r="D212">
+        <v>0.99869205517807369</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>4.3336946591947201E-2</v>
+      </c>
+      <c r="B213">
+        <v>0.90445387318347947</v>
+      </c>
+      <c r="C213">
+        <v>0.50497104372033297</v>
+      </c>
+      <c r="D213">
+        <v>0.97833152670402646</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>3.3163712932093347E-3</v>
+      </c>
+      <c r="B214">
+        <v>0.75298399150222517</v>
+      </c>
+      <c r="C214">
+        <v>0.9832689906946559</v>
+      </c>
+      <c r="D214">
+        <v>0.99834181435339531</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1.135039489016443E-2</v>
+      </c>
+      <c r="B215">
+        <v>0.82365531762933397</v>
+      </c>
+      <c r="C215">
+        <v>0.9244255012403807</v>
+      </c>
+      <c r="D215">
+        <v>0.99432480255491784</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1.8056940290240388E-2</v>
+      </c>
+      <c r="B216">
+        <v>0.84319387244536625</v>
+      </c>
+      <c r="C216">
+        <v>0.86721061031797364</v>
+      </c>
+      <c r="D216">
+        <v>0.99097152985487968</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>6.274640457549003E-4</v>
+      </c>
+      <c r="B217">
+        <v>0.85700880891454889</v>
+      </c>
+      <c r="C217">
+        <v>0.9949847988931787</v>
+      </c>
+      <c r="D217">
+        <v>0.99968626797712257</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>5.2495757918552041E-3</v>
+      </c>
+      <c r="B218">
+        <v>0.82314230738563943</v>
+      </c>
+      <c r="C218">
+        <v>0.96509563240309237</v>
+      </c>
+      <c r="D218">
+        <v>0.99737521210407243</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>7.3311619180132601E-3</v>
+      </c>
+      <c r="B219">
+        <v>0.763812949710304</v>
+      </c>
+      <c r="C219">
+        <v>0.96169033244395952</v>
+      </c>
+      <c r="D219">
+        <v>0.99633441904099329</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>5.9382002594645595E-3</v>
+      </c>
+      <c r="B220">
+        <v>0.75504631117579246</v>
+      </c>
+      <c r="C220">
+        <v>0.96985521784247331</v>
+      </c>
+      <c r="D220">
+        <v>0.99703089987026772</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1.0831122900088418E-3</v>
+      </c>
+      <c r="B221">
+        <v>0.64211619555797084</v>
+      </c>
+      <c r="C221">
+        <v>0.99589435716501318</v>
+      </c>
+      <c r="D221">
+        <v>0.99945844385499549</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1.2392498604751242E-2</v>
+      </c>
+      <c r="B222">
+        <v>0.83197521322873313</v>
+      </c>
+      <c r="C222">
+        <v>0.9140071610392172</v>
+      </c>
+      <c r="D222">
+        <v>0.99380375069762439</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>4.9145921135340595E-2</v>
+      </c>
+      <c r="B223">
+        <v>0.87959171730091879</v>
+      </c>
+      <c r="C223">
+        <v>0.54511048327357003</v>
+      </c>
+      <c r="D223">
+        <v>0.97542703943232967</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1.695440597588569E-2</v>
+      </c>
+      <c r="B224">
+        <v>0.77345565485686951</v>
+      </c>
+      <c r="C224">
+        <v>0.90849454326159107</v>
+      </c>
+      <c r="D224">
+        <v>0.99152279701205714</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>2.728285077951002E-3</v>
+      </c>
+      <c r="B225">
+        <v>0.63251167255695873</v>
+      </c>
+      <c r="C225">
+        <v>0.98985517878169982</v>
+      </c>
+      <c r="D225">
+        <v>0.99863585746102457</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>3.1143495474774338E-2</v>
+      </c>
+      <c r="B226">
+        <v>0.79293716100213685</v>
+      </c>
+      <c r="C226">
+        <v>0.81949813166120855</v>
+      </c>
+      <c r="D226">
+        <v>0.98442825226261288</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2.9515513641926429E-2</v>
+      </c>
+      <c r="B227">
+        <v>0.81613653602181346</v>
+      </c>
+      <c r="C227">
+        <v>0.81082614694999988</v>
+      </c>
+      <c r="D227">
+        <v>0.98524224317903686</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>5.4396582060775481E-2</v>
+      </c>
+      <c r="B228">
+        <v>0.88753089255724393</v>
+      </c>
+      <c r="C228">
+        <v>0.46490493781791031</v>
+      </c>
+      <c r="D228">
+        <v>0.97280170896961227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1.7773306505700873E-2</v>
+      </c>
+      <c r="B229">
+        <v>0.81914425211543562</v>
+      </c>
+      <c r="C229">
+        <v>0.8842699977783095</v>
+      </c>
+      <c r="D229">
+        <v>0.99111334674714957</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>3.7822111388196179E-3</v>
+      </c>
+      <c r="B230">
+        <v>0.70875193111544477</v>
+      </c>
+      <c r="C230">
+        <v>0.98324603879778261</v>
+      </c>
+      <c r="D230">
+        <v>0.99810889443059014</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>7.2030355649881019E-4</v>
+      </c>
+      <c r="B231">
+        <v>0.72910796715524639</v>
+      </c>
+      <c r="C231">
+        <v>0.99662120922234299</v>
+      </c>
+      <c r="D231">
+        <v>0.99963984822175056</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>4.1856153868435539E-3</v>
+      </c>
+      <c r="B232">
+        <v>0.72938746462604764</v>
+      </c>
+      <c r="C232">
+        <v>0.98036476576199894</v>
+      </c>
+      <c r="D232">
+        <v>0.99790719230657832</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1.8543608271407263E-3</v>
+      </c>
+      <c r="B233">
+        <v>0.5976427298742566</v>
+      </c>
+      <c r="C233">
+        <v>0.99354095094062966</v>
+      </c>
+      <c r="D233">
+        <v>0.99907281958642957</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>6.5658575407879028E-3</v>
+      </c>
+      <c r="B234">
+        <v>0.65754095856733485</v>
+      </c>
+      <c r="C234">
+        <v>0.9743047235450123</v>
+      </c>
+      <c r="D234">
+        <v>0.99671707122960596</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>3.9737221599102706E-3</v>
+      </c>
+      <c r="B235">
+        <v>0.53417938280331678</v>
+      </c>
+      <c r="C235">
+        <v>0.98751176398209695</v>
+      </c>
+      <c r="D235">
+        <v>0.99801313892004484</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1.4358831839551634E-3</v>
+      </c>
+      <c r="B236">
+        <v>0.67914322416611117</v>
+      </c>
+      <c r="C236">
+        <v>0.99409488281761238</v>
+      </c>
+      <c r="D236">
+        <v>0.99928205840802242</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>7.158233536062867E-4</v>
+      </c>
+      <c r="B237">
+        <v>0.74509264183662838</v>
+      </c>
+      <c r="C237">
+        <v>0.99648281283146845</v>
+      </c>
+      <c r="D237">
+        <v>0.9996420883231969</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>4.5013745808283739E-3</v>
+      </c>
+      <c r="B238">
+        <v>0.66440237598421215</v>
+      </c>
+      <c r="C238">
+        <v>0.9821059451851688</v>
+      </c>
+      <c r="D238">
+        <v>0.99774931270958567</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2.1426062521952933E-3</v>
+      </c>
+      <c r="B239">
+        <v>0.65895303985577047</v>
+      </c>
+      <c r="C239">
+        <v>0.99158047126307858</v>
+      </c>
+      <c r="D239">
+        <v>0.9989286968739024</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>4.5939782529662559E-3</v>
+      </c>
+      <c r="B240">
+        <v>0.75049724986639488</v>
+      </c>
+      <c r="C240">
+        <v>0.97701460088309622</v>
+      </c>
+      <c r="D240">
+        <v>0.99770301087351687</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>4.4181910569105691E-2</v>
+      </c>
+      <c r="B241">
+        <v>0.86107739254269988</v>
+      </c>
+      <c r="C241">
+        <v>0.63973758576433992</v>
+      </c>
+      <c r="D241">
+        <v>0.97790904471544715</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>5.0301114122252334E-2</v>
+      </c>
+      <c r="B242">
+        <v>0.86277050992105819</v>
+      </c>
+      <c r="C242">
+        <v>0.58568187416521522</v>
+      </c>
+      <c r="D242">
+        <v>0.97484944293887377</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>2.5722837564762902E-2</v>
+      </c>
+      <c r="B243">
+        <v>0.85598654014437181</v>
+      </c>
+      <c r="C243">
+        <v>0.7963247708146346</v>
+      </c>
+      <c r="D243">
+        <v>0.98713858121761855</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>3.1020209398587777E-2</v>
+      </c>
+      <c r="B244">
+        <v>0.86433874975064184</v>
+      </c>
+      <c r="C244">
+        <v>0.74128272670172124</v>
+      </c>
+      <c r="D244">
+        <v>0.98448989530070607</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>4.9526989426822481E-2</v>
+      </c>
+      <c r="B245">
+        <v>0.86848615853274702</v>
+      </c>
+      <c r="C245">
+        <v>0.57633462746314201</v>
+      </c>
+      <c r="D245">
+        <v>0.97523650528658878</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>5.0600240096038418E-2</v>
+      </c>
+      <c r="B246">
+        <v>0.86280573798557902</v>
+      </c>
+      <c r="C246">
+        <v>0.58313834805756037</v>
+      </c>
+      <c r="D246">
+        <v>0.97469987995198082</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>4.6393232617722407E-2</v>
+      </c>
+      <c r="B247">
+        <v>0.87315519782766893</v>
+      </c>
+      <c r="C247">
+        <v>0.59001110137208967</v>
+      </c>
+      <c r="D247">
+        <v>0.97680338369113884</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>4.0741722857792255E-2</v>
+      </c>
+      <c r="B248">
+        <v>0.86959823693963989</v>
+      </c>
+      <c r="C248">
+        <v>0.64848605045831709</v>
+      </c>
+      <c r="D248">
+        <v>0.9796291385711039</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>3.694314381270903E-2</v>
+      </c>
+      <c r="B249">
+        <v>0.87498672617268347</v>
+      </c>
+      <c r="C249">
+        <v>0.66890931884430826</v>
+      </c>
+      <c r="D249">
+        <v>0.98152842809364549</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>4.4553263486692266E-2</v>
+      </c>
+      <c r="B250">
+        <v>0.88120521528479301</v>
+      </c>
+      <c r="C250">
+        <v>0.58238780900552023</v>
+      </c>
+      <c r="D250">
+        <v>0.97772336825665374</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>5.3227931488801054E-2</v>
+      </c>
+      <c r="B251">
+        <v>0.87669978681795302</v>
+      </c>
+      <c r="C251">
+        <v>0.51791155015527335</v>
+      </c>
+      <c r="D251">
+        <v>0.97338603425559955</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>5.6579272014232476E-2</v>
+      </c>
+      <c r="B252">
+        <v>0.86854626396370715</v>
+      </c>
+      <c r="C252">
+        <v>0.51621013919727576</v>
+      </c>
+      <c r="D252">
+        <v>0.97171036399288369</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>3.9641176653890497E-2</v>
+      </c>
+      <c r="B253">
+        <v>0.86834228962326265</v>
+      </c>
+      <c r="C253">
+        <v>0.66083784226292874</v>
+      </c>
+      <c r="D253">
+        <v>0.98017941167305478</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>4.3037811883734886E-2</v>
+      </c>
+      <c r="B254">
+        <v>0.85820134499570733</v>
+      </c>
+      <c r="C254">
+        <v>0.65530094577292297</v>
+      </c>
+      <c r="D254">
+        <v>0.97848109405813255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>4.892238999069122E-2</v>
+      </c>
+      <c r="B255">
+        <v>0.86430528939233764</v>
+      </c>
+      <c r="C255">
+        <v>0.59293870230714973</v>
+      </c>
+      <c r="D255">
+        <v>0.9755388050046544</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>5.1347334029934216E-2</v>
+      </c>
+      <c r="B256">
+        <v>0.87076965912432958</v>
+      </c>
+      <c r="C256">
+        <v>0.55395776837961197</v>
+      </c>
+      <c r="D256">
+        <v>0.97432633298503291</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>3.276877761413844E-2</v>
+      </c>
+      <c r="B257">
+        <v>0.86096276016190887</v>
+      </c>
+      <c r="C257">
+        <v>0.73262157983711895</v>
+      </c>
+      <c r="D257">
+        <v>0.98361561119293084</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1.411682892906815E-2</v>
+      </c>
+      <c r="B258">
+        <v>0.88438749340360834</v>
+      </c>
+      <c r="C258">
+        <v>0.86397778170926642</v>
+      </c>
+      <c r="D258">
+        <v>0.99294158553546596</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>3.8755920162381594E-2</v>
+      </c>
+      <c r="B259">
+        <v>0.87674730894771724</v>
+      </c>
+      <c r="C259">
+        <v>0.64830340328751412</v>
+      </c>
+      <c r="D259">
+        <v>0.98062203991880914</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>2.2228623553699169E-2</v>
+      </c>
+      <c r="B260">
+        <v>0.88633409472718805</v>
+      </c>
+      <c r="C260">
+        <v>0.78270445224520857</v>
+      </c>
+      <c r="D260">
+        <v>0.98888568822315037</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>5.4754122994853304E-3</v>
+      </c>
+      <c r="B261">
+        <v>0.80506715485972213</v>
+      </c>
+      <c r="C261">
+        <v>0.96646585710746968</v>
+      </c>
+      <c r="D261">
+        <v>0.99726229385025733</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>9.2772479296675692E-3</v>
+      </c>
+      <c r="B262">
+        <v>0.83848592562372082</v>
+      </c>
+      <c r="C262">
+        <v>0.93336970000217545</v>
+      </c>
+      <c r="D262">
+        <v>0.99536137603516617</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>9.8780598780598781E-3</v>
+      </c>
+      <c r="B263">
+        <v>0.8385444818149671</v>
+      </c>
+      <c r="C263">
+        <v>0.92903835962303516</v>
+      </c>
+      <c r="D263">
+        <v>0.99506097006097005</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>7.8996193645875165E-3</v>
+      </c>
+      <c r="B264">
+        <v>0.82066210570574727</v>
+      </c>
+      <c r="C264">
+        <v>0.94811400217116293</v>
+      </c>
+      <c r="D264">
+        <v>0.99605019031770625</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>7.2219022184985427E-3</v>
+      </c>
+      <c r="B265">
+        <v>0.80606770812230188</v>
+      </c>
+      <c r="C265">
+        <v>0.95559100963956001</v>
+      </c>
+      <c r="D265">
+        <v>0.99638904889075075</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>7.1636776839088974E-4</v>
+      </c>
+      <c r="B266">
+        <v>0.74964130219671465</v>
+      </c>
+      <c r="C266">
+        <v>0.99642277980306193</v>
+      </c>
+      <c r="D266">
+        <v>0.9996418161158046</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>9.0480651575405319E-3</v>
+      </c>
+      <c r="B267">
+        <v>0.81598070890351726</v>
+      </c>
+      <c r="C267">
+        <v>0.94186524724460985</v>
+      </c>
+      <c r="D267">
+        <v>0.99547596742122979</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>9.66332959684589E-6</v>
+      </c>
+      <c r="B272">
+        <v>0.33332850163351713</v>
+      </c>
+      <c r="C272">
+        <v>0.99997584187444022</v>
+      </c>
+      <c r="D272">
+        <v>0.99999516833520152</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>3.9035769828926906E-3</v>
+      </c>
+      <c r="B273">
+        <v>0.84654444143651286</v>
+      </c>
+      <c r="C273">
+        <v>0.97067387425991813</v>
+      </c>
+      <c r="D273">
+        <v>0.99804821150855361</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>3.4438719818364405E-3</v>
+      </c>
+      <c r="B274">
+        <v>0.81113335555130761</v>
+      </c>
+      <c r="C274">
+        <v>0.97833363407314999</v>
+      </c>
+      <c r="D274">
+        <v>0.9982780640090817</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>3.1804832872305423E-3</v>
+      </c>
+      <c r="B277">
+        <v>0.79839755070640805</v>
+      </c>
+      <c r="C277">
+        <v>0.98105365934186595</v>
+      </c>
+      <c r="D277">
+        <v>0.99840975835638479</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>6.9487874365923151E-5</v>
+      </c>
+      <c r="B280">
+        <v>-3.4745144366074854E-5</v>
+      </c>
+      <c r="C280">
+        <v>0.9998610314941152</v>
+      </c>
+      <c r="D280">
+        <v>0.99996525606281705</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>5.4754122994853304E-3</v>
+      </c>
+      <c r="B281">
+        <v>0.80506715485972213</v>
+      </c>
+      <c r="C281">
+        <v>0.96646585710746968</v>
+      </c>
+      <c r="D281">
+        <v>0.99726229385025733</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>9.2772479296675692E-3</v>
+      </c>
+      <c r="B282">
+        <v>0.83848592562372082</v>
+      </c>
+      <c r="C282">
+        <v>0.93336970000217545</v>
+      </c>
+      <c r="D282">
+        <v>0.99536137603516617</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>9.8780598780598781E-3</v>
+      </c>
+      <c r="B283">
+        <v>0.8385444818149671</v>
+      </c>
+      <c r="C283">
+        <v>0.92903835962303516</v>
+      </c>
+      <c r="D283">
+        <v>0.99506097006097005</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>7.8996193645875165E-3</v>
+      </c>
+      <c r="B284">
+        <v>0.82066210570574727</v>
+      </c>
+      <c r="C284">
+        <v>0.94811400217116293</v>
+      </c>
+      <c r="D284">
+        <v>0.99605019031770625</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>7.2219022184985427E-3</v>
+      </c>
+      <c r="B285">
+        <v>0.80606770812230188</v>
+      </c>
+      <c r="C285">
+        <v>0.95559100963956001</v>
+      </c>
+      <c r="D285">
+        <v>0.99638904889075075</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>7.1636776839088974E-4</v>
+      </c>
+      <c r="B286">
+        <v>0.74964130219671465</v>
+      </c>
+      <c r="C286">
+        <v>0.99642277980306193</v>
+      </c>
+      <c r="D286">
+        <v>0.9996418161158046</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>9.0480651575405319E-3</v>
+      </c>
+      <c r="B287">
+        <v>0.81598070890351726</v>
+      </c>
+      <c r="C287">
+        <v>0.94186524724460985</v>
+      </c>
+      <c r="D287">
+        <v>0.99547596742122979</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>9.66332959684589E-6</v>
+      </c>
+      <c r="B292">
+        <v>0.33332850163351713</v>
+      </c>
+      <c r="C292">
+        <v>0.99997584187444022</v>
+      </c>
+      <c r="D292">
+        <v>0.99999516833520152</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>3.9035769828926906E-3</v>
+      </c>
+      <c r="B293">
+        <v>0.84654444143651286</v>
+      </c>
+      <c r="C293">
+        <v>0.97067387425991813</v>
+      </c>
+      <c r="D293">
+        <v>0.99804821150855361</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>3.4438719818364405E-3</v>
+      </c>
+      <c r="B294">
+        <v>0.81113335555130761</v>
+      </c>
+      <c r="C294">
+        <v>0.97833363407314999</v>
+      </c>
+      <c r="D294">
+        <v>0.9982780640090817</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>3.1804832872305423E-3</v>
+      </c>
+      <c r="B297">
+        <v>0.79839755070640805</v>
+      </c>
+      <c r="C297">
+        <v>0.98105365934186595</v>
+      </c>
+      <c r="D297">
+        <v>0.99840975835638479</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>6.9487874365923151E-5</v>
+      </c>
+      <c r="B300">
+        <v>-3.4745144366074854E-5</v>
+      </c>
+      <c r="C300">
+        <v>0.9998610314941152</v>
+      </c>
+      <c r="D300">
+        <v>0.99996525606281705</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>3.7037037037037037E-5</v>
+      </c>
+      <c r="B301">
+        <v>0.79308492809967335</v>
+      </c>
+      <c r="C301">
+        <v>0.99978396801173597</v>
+      </c>
+      <c r="D301">
+        <v>0.99998148148148147</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>1.8700327255726977E-5</v>
+      </c>
+      <c r="B302">
+        <v>-9.350251054240807E-6</v>
+      </c>
+      <c r="C302">
+        <v>0.99996259987004199</v>
+      </c>
+      <c r="D302">
+        <v>0.9999906498363722</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>3.8006435756454759E-5</v>
+      </c>
+      <c r="B304">
+        <v>0.91042875394276335</v>
+      </c>
+      <c r="C304">
+        <v>0.99953767986933884</v>
+      </c>
+      <c r="D304">
+        <v>0.99998099678212171</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>1.6861510791366906E-5</v>
+      </c>
+      <c r="B305">
+        <v>0.62499156905505959</v>
+      </c>
+      <c r="C305">
+        <v>0.99993817575562416</v>
+      </c>
+      <c r="D305">
+        <v>0.99999156924460431</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>1.1298413702716138E-5</v>
+      </c>
+      <c r="B306">
+        <v>0.49999435072932086</v>
+      </c>
+      <c r="C306">
+        <v>0.99996610514185436</v>
+      </c>
+      <c r="D306">
+        <v>0.99999435079314869</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>3.2425421530479896E-5</v>
+      </c>
+      <c r="B307">
+        <v>0.80643539883427828</v>
+      </c>
+      <c r="C307">
+        <v>0.99980005831867902</v>
+      </c>
+      <c r="D307">
+        <v>0.99998378728923476</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>1.6867388590898357E-5</v>
+      </c>
+      <c r="B313">
+        <v>0.85713442295064202</v>
+      </c>
+      <c r="C313">
+        <v>0.99986506814624732</v>
+      </c>
+      <c r="D313">
+        <v>0.99999156630570463</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>4.1837503137812737E-5</v>
+      </c>
+      <c r="B315">
+        <v>0.85997907812229146</v>
+      </c>
+      <c r="C315">
+        <v>0.99965936959157775</v>
+      </c>
+      <c r="D315">
+        <v>0.99997908124843105</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>3.9682539682539683E-5</v>
+      </c>
+      <c r="B318">
+        <v>0.8727074283637809</v>
+      </c>
+      <c r="C318">
+        <v>0.99964857625873482</v>
+      </c>
+      <c r="D318">
+        <v>0.99998015873015877</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>2.4624961831309162E-5</v>
+      </c>
+      <c r="B320">
+        <v>0.88370861644776855</v>
+      </c>
+      <c r="C320">
+        <v>0.99976362339706393</v>
+      </c>
+      <c r="D320">
+        <v>0.99998768751908429</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>4.307466994034158E-5</v>
+      </c>
+      <c r="B322">
+        <v>0.68747846118058575</v>
+      </c>
+      <c r="C322">
+        <v>0.99981909774146505</v>
+      </c>
+      <c r="D322">
+        <v>0.99997846266502988</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>4.0168247574124761E-5</v>
+      </c>
+      <c r="B323">
+        <v>0.71997991443549503</v>
+      </c>
+      <c r="C323">
+        <v>0.99981638562896624</v>
+      </c>
+      <c r="D323">
+        <v>0.99997991587621293</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>0</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>0</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>0</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>7.6003435355278057E-6</v>
+      </c>
+      <c r="B333">
+        <v>0.70710409403379182</v>
+      </c>
+      <c r="C333">
+        <v>0.99996959897244919</v>
+      </c>
+      <c r="D333">
+        <v>0.99999619982823218</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>0</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>3.7756406453109243E-5</v>
+      </c>
+      <c r="B338">
+        <v>0.91285369239566094</v>
+      </c>
+      <c r="C338">
+        <v>0.99954701150642877</v>
+      </c>
+      <c r="D338">
+        <v>0.99998112179677345</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>2.686583203481812E-5</v>
+      </c>
+      <c r="B347">
+        <v>0.57141513809150657</v>
+      </c>
+      <c r="C347">
+        <v>0.9999104499131497</v>
+      </c>
+      <c r="D347">
+        <v>0.99998656708398259</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>6.6413513978091359E-5</v>
+      </c>
+      <c r="B350">
+        <v>0.77918756746850759</v>
+      </c>
+      <c r="C350">
+        <v>0.99963282198980574</v>
+      </c>
+      <c r="D350">
+        <v>0.99996679324301097</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>2.3629936293691751E-5</v>
+      </c>
+      <c r="B351">
+        <v>0.77271545714488266</v>
+      </c>
+      <c r="C351">
+        <v>0.99987240430744728</v>
+      </c>
+      <c r="D351">
+        <v>0.99998818503185316</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>2.6124120923330928E-5</v>
+      </c>
+      <c r="B352">
+        <v>0.66665360409433261</v>
+      </c>
+      <c r="C352">
+        <v>0.99989550726988996</v>
+      </c>
+      <c r="D352">
+        <v>0.9999869379395383</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>4.2735042735042735E-5</v>
+      </c>
+      <c r="B353">
+        <v>0.8333119630721888</v>
+      </c>
+      <c r="C353">
+        <v>0.99970088940024848</v>
+      </c>
+      <c r="D353">
+        <v>0.9999786324786325</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>3.1738978639667378E-5</v>
+      </c>
+      <c r="B354">
+        <v>0.76921489865006465</v>
+      </c>
+      <c r="C354">
+        <v>0.99983073591263505</v>
+      </c>
+      <c r="D354">
+        <v>0.99998413051068014</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>3.2733224222585926E-5</v>
+      </c>
+      <c r="B356">
+        <v>0.76188839416753606</v>
+      </c>
+      <c r="C356">
+        <v>0.99982979775581871</v>
+      </c>
+      <c r="D356">
+        <v>0.99998363338788865</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>3.3272998296422486E-5</v>
+      </c>
+      <c r="B357">
+        <v>0.77271063501023374</v>
+      </c>
+      <c r="C357">
+        <v>0.99982033763294631</v>
+      </c>
+      <c r="D357">
+        <v>0.99998336350085182</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>3.1104199066874027E-5</v>
+      </c>
+      <c r="B358">
+        <v>0.78259314243996903</v>
+      </c>
+      <c r="C358">
+        <v>0.99982582768854211</v>
+      </c>
+      <c r="D358">
+        <v>0.99998444790046659</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>3.2486095950933004E-5</v>
+      </c>
+      <c r="B359">
+        <v>0.7825924513904593</v>
+      </c>
+      <c r="C359">
+        <v>0.99981809008358646</v>
+      </c>
+      <c r="D359">
+        <v>0.99998375695202457</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>3.0908843638341805E-5</v>
+      </c>
+      <c r="B360">
+        <v>0.81479935910315671</v>
+      </c>
+      <c r="C360">
+        <v>0.99980219828517081</v>
+      </c>
+      <c r="D360">
+        <v>0.99998454557818084</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>1.6292748097821659E-5</v>
+      </c>
+      <c r="B361">
+        <v>0.33332518685973811</v>
+      </c>
+      <c r="C361">
+        <v>0.99995926869384455</v>
+      </c>
+      <c r="D361">
+        <v>0.99999185362595111</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>0</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>0</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>0</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>0</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>0</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>0</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>0</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>0</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>0</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>0</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>0</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>0</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>0</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>0</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>0</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>0</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>1.6292748097821659E-5</v>
+      </c>
+      <c r="B381">
+        <v>0.33332518685973811</v>
+      </c>
+      <c r="C381">
+        <v>0.99995926869384455</v>
+      </c>
+      <c r="D381">
+        <v>0.99999185362595111</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>0</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>0</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>0</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>0</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>0</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>0</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>0</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>0</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>0</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>0</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>0</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>0</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>0</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>0</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>0</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>0</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>0</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>0</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>